--- a/!OLD_MANSURA/Python/HISTORY/Daily/2022-11-23.xlsx
+++ b/!OLD_MANSURA/Python/HISTORY/Daily/2022-11-23.xlsx
@@ -533,7 +533,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>a $0.00</t>
+          <t>admin $0.00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
